--- a/NiTiErp/wwwroot/export-files/SucKhoeTK.xlsx
+++ b/NiTiErp/wwwroot/export-files/SucKhoeTK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>vv</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Tên</t>
+  </si>
+  <si>
+    <t>Xí nghiệp</t>
   </si>
   <si>
     <t>Phòng</t>
@@ -107,21 +110,6 @@
   </si>
   <si>
     <t>Nữ</t>
-  </si>
-  <si>
-    <t>Loại 1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Nguyễn hoàng555555555</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Nam</t>
   </si>
   <si>
     <t>Loại 2</t>
@@ -549,14 +537,14 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -846,7 +834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -854,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W14"/>
+  <dimension ref="A2:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -865,27 +853,28 @@
     <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
     <col min="2" max="2" width="8.28515625" customWidth="1" style="4"/>
     <col min="3" max="3" width="43.28515625" customWidth="1" style="2"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1" style="5"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" style="2"/>
-    <col min="6" max="6" width="14" customWidth="1" style="2"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1" style="2"/>
-    <col min="8" max="8" width="12.140625" customWidth="1" style="2"/>
-    <col min="9" max="9" bestFit="1" width="11.28515625" customWidth="1" style="2"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1" style="2"/>
-    <col min="11" max="11" bestFit="1" width="15.85546875" customWidth="1" style="2"/>
-    <col min="12" max="12" bestFit="1" width="17.7109375" customWidth="1" style="2"/>
-    <col min="13" max="13" bestFit="1" width="23.28515625" customWidth="1" style="2"/>
-    <col min="14" max="14" bestFit="1" width="14.5703125" customWidth="1" style="2"/>
-    <col min="15" max="15" bestFit="1" width="14.140625" customWidth="1" style="2"/>
-    <col min="16" max="16" bestFit="1" width="11.85546875" customWidth="1" style="2"/>
-    <col min="17" max="17" bestFit="1" width="19.42578125" customWidth="1" style="2"/>
-    <col min="18" max="18" bestFit="1" width="19" customWidth="1" style="2"/>
-    <col min="19" max="19" width="9.140625" customWidth="1" style="2"/>
-    <col min="20" max="20" bestFit="1" width="16.42578125" customWidth="1" style="2"/>
-    <col min="21" max="21" bestFit="1" width="13.42578125" customWidth="1" style="2"/>
-    <col min="22" max="22" width="12.85546875" customWidth="1" style="2"/>
-    <col min="23" max="23" width="26.85546875" customWidth="1" style="2"/>
-    <col min="24" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1" style="2"/>
+    <col min="5" max="5" width="27.140625" customWidth="1" style="5"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" style="2"/>
+    <col min="7" max="7" width="14" customWidth="1" style="2"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1" style="2"/>
+    <col min="9" max="9" width="12.140625" customWidth="1" style="2"/>
+    <col min="10" max="10" bestFit="1" width="11.28515625" customWidth="1" style="2"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1" style="2"/>
+    <col min="12" max="12" bestFit="1" width="15.85546875" customWidth="1" style="2"/>
+    <col min="13" max="13" bestFit="1" width="17.7109375" customWidth="1" style="2"/>
+    <col min="14" max="14" bestFit="1" width="23.28515625" customWidth="1" style="2"/>
+    <col min="15" max="15" bestFit="1" width="14.5703125" customWidth="1" style="2"/>
+    <col min="16" max="16" bestFit="1" width="14.140625" customWidth="1" style="2"/>
+    <col min="17" max="17" bestFit="1" width="11.85546875" customWidth="1" style="2"/>
+    <col min="18" max="18" bestFit="1" width="19.42578125" customWidth="1" style="2"/>
+    <col min="19" max="19" bestFit="1" width="19" customWidth="1" style="2"/>
+    <col min="20" max="20" width="9.140625" customWidth="1" style="2"/>
+    <col min="21" max="21" bestFit="1" width="16.42578125" customWidth="1" style="2"/>
+    <col min="22" max="22" bestFit="1" width="13.42578125" customWidth="1" style="2"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1" style="2"/>
+    <col min="24" max="24" width="26.85546875" customWidth="1" style="2"/>
+    <col min="25" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -894,38 +883,40 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
     </row>
     <row r="4" ht="17.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" ht="33.75" s="3" customFormat="1">
       <c r="A5" s="11"/>
@@ -935,10 +926,10 @@
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -989,18 +980,21 @@
       <c r="U5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="9" t="s">
         <v>24</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="18"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1018,26 +1012,27 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="13"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="13"/>
     </row>
     <row r="7">
       <c r="B7" s="35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="36">
-        <v>1</v>
+      <c r="G7" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="H7" s="36">
         <v>1</v>
@@ -1081,217 +1076,158 @@
       <c r="U7" s="36">
         <v>1</v>
       </c>
-      <c r="V7" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="39" t="s">
+      <c r="V7" s="36">
+        <v>1</v>
+      </c>
+      <c r="W7" s="36" t="s">
         <v>31</v>
+      </c>
+      <c r="X7" s="39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="36">
-        <v>1</v>
-      </c>
-      <c r="H8" s="36">
-        <v>1</v>
-      </c>
-      <c r="I8" s="36">
-        <v>1</v>
-      </c>
-      <c r="J8" s="36">
-        <v>1</v>
-      </c>
-      <c r="K8" s="36">
-        <v>1</v>
-      </c>
-      <c r="L8" s="36">
-        <v>1</v>
-      </c>
-      <c r="M8" s="36">
-        <v>1</v>
-      </c>
-      <c r="N8" s="36">
-        <v>1</v>
-      </c>
-      <c r="O8" s="36">
-        <v>1</v>
-      </c>
-      <c r="P8" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="36">
-        <v>1</v>
-      </c>
-      <c r="R8" s="36">
-        <v>1</v>
-      </c>
-      <c r="S8" s="36">
-        <v>1</v>
-      </c>
-      <c r="T8" s="36">
-        <v>1</v>
-      </c>
-      <c r="U8" s="36">
-        <v>1</v>
-      </c>
-      <c r="V8" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="W8" s="39" t="s">
-        <v>36</v>
-      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
     </row>
     <row r="9">
-      <c r="B9" s="20"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="31">
+        <f>SUM(H6:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="31">
+        <f>SUM(I6:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
+        <f ref="J9:V9" t="shared" si="0">SUM(J6:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="28"/>
+      <c r="X9" s="30"/>
     </row>
-    <row r="10">
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="31">
-        <f>SUM(G6:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="31">
-        <f>SUM(H6:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="31">
-        <f ref="I10:T10" t="shared" si="0">SUM(I6:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="30"/>
+    <row r="10" ht="17.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="17"/>
     </row>
-    <row r="11" ht="17.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="17"/>
+    <row r="12">
+      <c r="V12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
     </row>
     <row r="13">
-      <c r="U13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" s="33"/>
+      <c r="V13" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="W13" s="33"/>
-    </row>
-    <row r="14">
-      <c r="U14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
+      <c r="X13" s="33"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:X3"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="V13:X13"/>
   </mergeCells>
   <pageMargins left="0.55069444444444449" right="0.2361111111111111" top="0.47222222222222221" bottom="0.35416666666666669" header="0.31458333333333333" footer="0.27500000000000002"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait"/>
